--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rd42dbd3d99494b23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rfa350d0cb9ce4c82"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rfa350d0cb9ce4c82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R3b193b186d134b0d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R3b193b186d134b0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R5d36e3fa4c0f460f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R5d36e3fa4c0f460f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R01fec016eaca4030"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R01fec016eaca4030"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9202a2a7cf9f4e48"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9202a2a7cf9f4e48"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rbeef6a8b77344129"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rbeef6a8b77344129"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R7af477f5926a41f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R7af477f5926a41f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rd1631d36a2134349"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rd1631d36a2134349"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf828b0eef6534c9c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf828b0eef6534c9c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R084ef00386d14663"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R084ef00386d14663"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf08959f3c1cd4066"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf08959f3c1cd4066"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R69111b54a1e7449f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R69111b54a1e7449f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R675276e944274a06"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R675276e944274a06"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rb9f9c2bd01c04d18"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/74_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rb9f9c2bd01c04d18"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rc44aff1f52794391"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
